--- a/microservice-production/microservice-data-analysis-api/src/main/resources/excelTemplate/shapingResultData.xlsx
+++ b/microservice-production/microservice-data-analysis-api/src/main/resources/excelTemplate/shapingResultData.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="49">
   <si>
     <t>项目量产成型结果数据表</t>
   </si>
@@ -64,7 +64,7 @@
     <t>镀膜片模拟结果</t>
   </si>
   <si>
-    <t>毛边</t>
+    <t>毛边(um)</t>
   </si>
   <si>
     <t>熔接线（黄光灯下是否存在）</t>
@@ -76,64 +76,82 @@
     <t>备注</t>
   </si>
   <si>
-    <t>芯厚</t>
-  </si>
-  <si>
-    <t>芯厚极差</t>
-  </si>
-  <si>
-    <t>R1矢高</t>
-  </si>
-  <si>
-    <t>R1矢高极差</t>
-  </si>
-  <si>
-    <t>R2矢高</t>
-  </si>
-  <si>
-    <t>R2矢高极差</t>
-  </si>
-  <si>
-    <t>外径偏心</t>
-  </si>
-  <si>
-    <t>坎合偏心</t>
-  </si>
-  <si>
-    <t>面间偏心</t>
+    <t>芯厚(um)</t>
+  </si>
+  <si>
+    <t>芯厚极差(um)</t>
+  </si>
+  <si>
+    <t>R1矢高(um)</t>
+  </si>
+  <si>
+    <t>R1矢高极差(um)</t>
+  </si>
+  <si>
+    <t>R2矢高(um)</t>
+  </si>
+  <si>
+    <t>R2矢高极差(um)</t>
+  </si>
+  <si>
+    <t>外径偏心(%/规格)</t>
+  </si>
+  <si>
+    <t>坎合偏心(%/规格)</t>
+  </si>
+  <si>
+    <t>面间偏心(%/规格)</t>
   </si>
   <si>
     <t>退火制程</t>
   </si>
   <si>
-    <t>外径均值</t>
-  </si>
-  <si>
-    <t>外径极差</t>
-  </si>
-  <si>
-    <t>外径圆度</t>
-  </si>
-  <si>
-    <t>外径收缩率</t>
-  </si>
-  <si>
-    <t>外径粗糙度</t>
+    <t>BP坎合圆度(um)</t>
+  </si>
+  <si>
+    <t>DMP坎合圆度(um)</t>
+  </si>
+  <si>
+    <t>外径均值(um)</t>
+  </si>
+  <si>
+    <t>外径极差(um)</t>
+  </si>
+  <si>
+    <t>外径圆度(um)</t>
+  </si>
+  <si>
+    <t>外径收缩率(‰)</t>
+  </si>
+  <si>
+    <t>外径粗糙度(um)</t>
+  </si>
+  <si>
+    <t>R1(um)</t>
+  </si>
+  <si>
+    <t>R2(um)</t>
+  </si>
+  <si>
+    <t>R1(nm)</t>
+  </si>
+  <si>
+    <t>R2(nm)</t>
+  </si>
+  <si>
+    <t>全穴一致性(nm)</t>
+  </si>
+  <si>
+    <t>最大AS(nm)</t>
+  </si>
+  <si>
+    <t>5+3+3稳定性(nm)</t>
   </si>
   <si>
     <t>R1</t>
   </si>
   <si>
     <t>R2</t>
-  </si>
-  <si>
-    <t>5+3+3稳定性</t>
-  </si>
-  <si>
-    <t>全穴一致性</t>
-  </si>
-  <si>
-    <t>最大AS</t>
   </si>
   <si>
     <t>R1&amp;R2</t>
@@ -172,14 +190,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="12"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="16"/>
+      <b/>
+      <sz val="14"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -329,7 +347,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -338,6 +356,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -523,7 +547,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -535,6 +559,43 @@
       <left style="thin">
         <color auto="1"/>
       </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color auto="1"/>
       </right>
@@ -675,46 +736,46 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -729,55 +790,52 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -789,54 +847,72 @@
     <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1187,10 +1263,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AP3"/>
+  <dimension ref="A1:AR3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
@@ -1202,22 +1278,21 @@
     <col min="12" max="12" width="12.75" customWidth="1"/>
     <col min="13" max="13" width="13" customWidth="1"/>
     <col min="14" max="14" width="12.375" customWidth="1"/>
-    <col min="15" max="15" width="11.625" customWidth="1"/>
-    <col min="16" max="16" width="12.5" customWidth="1"/>
-    <col min="17" max="18" width="12.375" customWidth="1"/>
-    <col min="19" max="19" width="13.875" customWidth="1"/>
-    <col min="20" max="20" width="14.125" customWidth="1"/>
-    <col min="21" max="21" width="14.25" customWidth="1"/>
-    <col min="26" max="26" width="16.5" customWidth="1"/>
-    <col min="27" max="27" width="14.125" customWidth="1"/>
-    <col min="29" max="29" width="14.75" customWidth="1"/>
-    <col min="32" max="32" width="14.375" customWidth="1"/>
-    <col min="34" max="34" width="12.25" customWidth="1"/>
-    <col min="39" max="39" width="20.125" customWidth="1"/>
-    <col min="41" max="41" width="12.375" customWidth="1"/>
+    <col min="15" max="16" width="11.625" customWidth="1"/>
+    <col min="17" max="17" width="12.5" customWidth="1"/>
+    <col min="18" max="19" width="12.375" customWidth="1"/>
+    <col min="20" max="20" width="13.875" customWidth="1"/>
+    <col min="21" max="21" width="14.125" customWidth="1"/>
+    <col min="22" max="22" width="14.25" customWidth="1"/>
+    <col min="29" max="29" width="16.5" customWidth="1"/>
+    <col min="30" max="30" width="14.125" customWidth="1"/>
+    <col min="34" max="34" width="14.375" customWidth="1"/>
+    <col min="36" max="36" width="12.25" customWidth="1"/>
+    <col min="41" max="41" width="20.125" customWidth="1"/>
+    <col min="43" max="43" width="12.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="29" customHeight="1" spans="1:42">
+    <row r="1" ht="29.1" customHeight="1" spans="1:44">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1262,8 +1337,10 @@
       <c r="AN1" s="2"/>
       <c r="AO1" s="2"/>
       <c r="AP1" s="2"/>
+      <c r="AQ1" s="2"/>
+      <c r="AR1" s="2"/>
     </row>
-    <row r="2" ht="21" customHeight="1" spans="1:42">
+    <row r="2" ht="21" customHeight="1" spans="1:44">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -1279,73 +1356,75 @@
       <c r="E2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3" t="s">
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3" t="s">
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3" t="s">
+      <c r="P2" s="4"/>
+      <c r="Q2" s="4"/>
+      <c r="R2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="R2" s="3"/>
-      <c r="S2" s="3"/>
-      <c r="T2" s="3"/>
-      <c r="U2" s="3"/>
-      <c r="V2" s="3" t="s">
+      <c r="S2" s="4"/>
+      <c r="T2" s="4"/>
+      <c r="U2" s="4"/>
+      <c r="V2" s="4"/>
+      <c r="W2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="W2" s="3"/>
-      <c r="X2" s="3" t="s">
+      <c r="X2" s="4"/>
+      <c r="Y2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="Y2" s="3"/>
-      <c r="Z2" s="3" t="s">
+      <c r="Z2" s="4"/>
+      <c r="AA2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="AA2" s="3"/>
-      <c r="AB2" s="3"/>
-      <c r="AC2" s="3"/>
-      <c r="AD2" s="3" t="s">
+      <c r="AB2" s="7"/>
+      <c r="AC2" s="7"/>
+      <c r="AD2" s="7"/>
+      <c r="AE2" s="8"/>
+      <c r="AF2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="AE2" s="3"/>
-      <c r="AF2" s="3"/>
-      <c r="AG2" s="3"/>
-      <c r="AH2" s="4" t="s">
+      <c r="AG2" s="4"/>
+      <c r="AH2" s="4"/>
+      <c r="AI2" s="4"/>
+      <c r="AJ2" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="AI2" s="3" t="s">
+      <c r="AK2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="AJ2" s="3"/>
-      <c r="AK2" s="3"/>
-      <c r="AL2" s="3" t="s">
+      <c r="AL2" s="4"/>
+      <c r="AM2" s="4"/>
+      <c r="AN2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="AM2" s="3" t="s">
+      <c r="AO2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="AN2" s="3" t="s">
+      <c r="AP2" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="AO2" s="3"/>
-      <c r="AP2" s="3" t="s">
+      <c r="AQ2" s="4"/>
+      <c r="AR2" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="3" ht="24" customHeight="1" spans="1:42">
+    <row r="3" ht="34.5" customHeight="1" spans="1:44">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -1381,102 +1460,108 @@
       <c r="O3" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="P3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q3" s="3" t="s">
+      <c r="P3" s="5" t="s">
         <v>30</v>
       </c>
+      <c r="Q3" s="5" t="s">
+        <v>31</v>
+      </c>
       <c r="R3" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="S3" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T3" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="U3" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="V3" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="W3" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="X3" s="3" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="Y3" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Z3" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="AA3" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="AB3" s="3" t="s">
+      <c r="AA3" s="5" t="s">
         <v>39</v>
       </c>
+      <c r="AB3" s="5" t="s">
+        <v>40</v>
+      </c>
       <c r="AC3" s="3" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="AD3" s="3" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="AE3" s="3" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="AF3" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AG3" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="AH3" s="5"/>
+        <v>40</v>
+      </c>
+      <c r="AH3" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="AI3" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="AJ3" s="3" t="s">
-        <v>36</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="AJ3" s="10"/>
       <c r="AK3" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="AL3" s="3"/>
-      <c r="AM3" s="3"/>
-      <c r="AN3" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="AO3" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="AP3" s="3"/>
+        <v>44</v>
+      </c>
+      <c r="AL3" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="AM3" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AN3" s="3"/>
+      <c r="AO3" s="3"/>
+      <c r="AP3" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AQ3" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="AR3" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A1:AP1"/>
+    <mergeCell ref="A1:AR1"/>
     <mergeCell ref="F2:K2"/>
     <mergeCell ref="L2:N2"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="Q2:U2"/>
-    <mergeCell ref="V2:W2"/>
-    <mergeCell ref="X2:Y2"/>
-    <mergeCell ref="Z2:AC2"/>
-    <mergeCell ref="AD2:AG2"/>
-    <mergeCell ref="AI2:AK2"/>
-    <mergeCell ref="AN2:AO2"/>
+    <mergeCell ref="O2:Q2"/>
+    <mergeCell ref="R2:V2"/>
+    <mergeCell ref="W2:X2"/>
+    <mergeCell ref="Y2:Z2"/>
+    <mergeCell ref="AA2:AE2"/>
+    <mergeCell ref="AF2:AI2"/>
+    <mergeCell ref="AK2:AM2"/>
+    <mergeCell ref="AP2:AQ2"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="D2:D3"/>
     <mergeCell ref="E2:E3"/>
-    <mergeCell ref="AH2:AH3"/>
-    <mergeCell ref="AL2:AL3"/>
-    <mergeCell ref="AM2:AM3"/>
-    <mergeCell ref="AP2:AP3"/>
+    <mergeCell ref="AJ2:AJ3"/>
+    <mergeCell ref="AN2:AN3"/>
+    <mergeCell ref="AO2:AO3"/>
+    <mergeCell ref="AR2:AR3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/microservice-production/microservice-data-analysis-api/src/main/resources/excelTemplate/shapingResultData.xlsx
+++ b/microservice-production/microservice-data-analysis-api/src/main/resources/excelTemplate/shapingResultData.xlsx
@@ -347,18 +347,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -739,10 +733,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -751,16 +745,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -772,52 +766,52 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -826,16 +820,19 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -847,37 +844,34 @@
     <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -897,7 +891,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -909,10 +903,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1265,8 +1259,8 @@
   <sheetPr/>
   <dimension ref="A1:AR3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView tabSelected="1" topLeftCell="AD1" workbookViewId="0">
+      <selection activeCell="AO21" sqref="AO21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>

--- a/microservice-production/microservice-data-analysis-api/src/main/resources/excelTemplate/shapingResultData.xlsx
+++ b/microservice-production/microservice-data-analysis-api/src/main/resources/excelTemplate/shapingResultData.xlsx
@@ -46,7 +46,7 @@
     <t>外径</t>
   </si>
   <si>
-    <t>平面度</t>
+    <t>白片平面度</t>
   </si>
   <si>
     <t>分割位均值</t>
@@ -94,13 +94,13 @@
     <t>R2矢高极差(um)</t>
   </si>
   <si>
-    <t>外径偏心(%/规格)</t>
-  </si>
-  <si>
-    <t>坎合偏心(%/规格)</t>
-  </si>
-  <si>
-    <t>面间偏心(%/规格)</t>
+    <t>白片外径偏心(%/规格)</t>
+  </si>
+  <si>
+    <t>白片坎合偏心(%/规格)</t>
+  </si>
+  <si>
+    <t>白片面间偏心(%/规格)</t>
   </si>
   <si>
     <t>退火制程</t>
@@ -112,19 +112,19 @@
     <t>DMP坎合圆度(um)</t>
   </si>
   <si>
-    <t>外径均值(um)</t>
-  </si>
-  <si>
-    <t>外径极差(um)</t>
+    <t>白片外径均值(um)</t>
+  </si>
+  <si>
+    <t>白片外径极差(um)</t>
   </si>
   <si>
     <t>外径圆度(um)</t>
   </si>
   <si>
-    <t>外径收缩率(‰)</t>
-  </si>
-  <si>
-    <t>外径粗糙度(um)</t>
+    <t>白片外径收缩率(‰)</t>
+  </si>
+  <si>
+    <t>白片外径粗糙度(um)</t>
   </si>
   <si>
     <t>R1(um)</t>
@@ -875,7 +875,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -889,9 +889,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1259,8 +1256,8 @@
   <sheetPr/>
   <dimension ref="A1:AR3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AD1" workbookViewId="0">
-      <selection activeCell="AO21" sqref="AO21"/>
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="Z19" sqref="Z19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
@@ -1383,20 +1380,20 @@
         <v>11</v>
       </c>
       <c r="Z2" s="4"/>
-      <c r="AA2" s="6" t="s">
+      <c r="AA2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="AB2" s="7"/>
-      <c r="AC2" s="7"/>
-      <c r="AD2" s="7"/>
-      <c r="AE2" s="8"/>
+      <c r="AB2" s="6"/>
+      <c r="AC2" s="6"/>
+      <c r="AD2" s="6"/>
+      <c r="AE2" s="7"/>
       <c r="AF2" s="4" t="s">
         <v>13</v>
       </c>
       <c r="AG2" s="4"/>
       <c r="AH2" s="4"/>
       <c r="AI2" s="4"/>
-      <c r="AJ2" s="9" t="s">
+      <c r="AJ2" s="8" t="s">
         <v>14</v>
       </c>
       <c r="AK2" s="4" t="s">
@@ -1454,10 +1451,10 @@
       <c r="O3" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="P3" s="5" t="s">
+      <c r="P3" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="Q3" s="5" t="s">
+      <c r="Q3" s="3" t="s">
         <v>31</v>
       </c>
       <c r="R3" s="3" t="s">
@@ -1487,10 +1484,10 @@
       <c r="Z3" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="AA3" s="5" t="s">
+      <c r="AA3" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="AB3" s="5" t="s">
+      <c r="AB3" s="3" t="s">
         <v>40</v>
       </c>
       <c r="AC3" s="3" t="s">
@@ -1514,7 +1511,7 @@
       <c r="AI3" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="AJ3" s="10"/>
+      <c r="AJ3" s="9"/>
       <c r="AK3" s="3" t="s">
         <v>44</v>
       </c>

--- a/microservice-production/microservice-data-analysis-api/src/main/resources/excelTemplate/shapingResultData.xlsx
+++ b/microservice-production/microservice-data-analysis-api/src/main/resources/excelTemplate/shapingResultData.xlsx
@@ -4,34 +4,44 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20925" windowHeight="9840" tabRatio="304"/>
+    <workbookView windowWidth="20925" windowHeight="9840" tabRatio="293"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="数据搜集模板" sheetId="1" r:id="rId1"/>
+    <sheet name="数据格式备注" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="91">
   <si>
     <t>项目量产成型结果数据表</t>
   </si>
   <si>
+    <t>事业部</t>
+  </si>
+  <si>
     <t>类别</t>
   </si>
   <si>
+    <t>镜片数</t>
+  </si>
+  <si>
     <t>项目</t>
   </si>
   <si>
+    <t>零件名称</t>
+  </si>
+  <si>
+    <t>材料</t>
+  </si>
+  <si>
     <t>模具序号</t>
   </si>
   <si>
-    <t>零件名称</t>
-  </si>
-  <si>
-    <t>材料</t>
+    <t>模具类型</t>
   </si>
   <si>
     <t>尺寸</t>
@@ -46,10 +56,45 @@
     <t>外径</t>
   </si>
   <si>
-    <t>白片平面度</t>
-  </si>
-  <si>
-    <t>分割位均值</t>
+    <r>
+      <t>白片</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>平面度</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>分割位</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>台阶</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>均值</t>
+    </r>
   </si>
   <si>
     <t>白片面型</t>
@@ -58,13 +103,24 @@
     <t>镀膜片面型</t>
   </si>
   <si>
-    <t>镀膜趋势</t>
+    <t>镀膜趋势（图片）</t>
   </si>
   <si>
     <t>镀膜片模拟结果</t>
   </si>
   <si>
-    <t>毛边(um)</t>
+    <r>
+      <t>分型面</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>毛边(um)</t>
+    </r>
   </si>
   <si>
     <t>熔接线（黄光灯下是否存在）</t>
@@ -76,6 +132,9 @@
     <t>备注</t>
   </si>
   <si>
+    <t>周期及成本</t>
+  </si>
+  <si>
     <t>芯厚(um)</t>
   </si>
   <si>
@@ -112,19 +171,102 @@
     <t>DMP坎合圆度(um)</t>
   </si>
   <si>
-    <t>白片外径均值(um)</t>
-  </si>
-  <si>
-    <t>白片外径极差(um)</t>
-  </si>
-  <si>
-    <t>外径圆度(um)</t>
-  </si>
-  <si>
-    <t>白片外径收缩率(‰)</t>
-  </si>
-  <si>
-    <t>白片外径粗糙度(um)</t>
+    <r>
+      <t>白片</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>外径均值(um)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>白片</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>外径极差(um)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>白片</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>外径圆度(um)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>白片</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>外径收缩率(‰)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>白片</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>外径粗糙度(um)</t>
+    </r>
   </si>
   <si>
     <t>R1(um)</t>
@@ -139,6 +281,12 @@
     <t>R2(nm)</t>
   </si>
   <si>
+    <t>R1图片</t>
+  </si>
+  <si>
+    <t>R2图片</t>
+  </si>
+  <si>
     <t>全穴一致性(nm)</t>
   </si>
   <si>
@@ -161,6 +309,152 @@
   </si>
   <si>
     <t>外观图片</t>
+  </si>
+  <si>
+    <t>ABC档合格数分布</t>
+  </si>
+  <si>
+    <t>结构方案总数</t>
+  </si>
+  <si>
+    <t>模具类型总数</t>
+  </si>
+  <si>
+    <t>模具费用</t>
+  </si>
+  <si>
+    <t>项目EVT耗时</t>
+  </si>
+  <si>
+    <t>项目DVT耗时</t>
+  </si>
+  <si>
+    <t>项目(EVT+DVT)耗时</t>
+  </si>
+  <si>
+    <t>项目EVT费用</t>
+  </si>
+  <si>
+    <t>项目DVT费用</t>
+  </si>
+  <si>
+    <t>项目(EVT+DVT)费用</t>
+  </si>
+  <si>
+    <t>项目量产</t>
+  </si>
+  <si>
+    <t>名称</t>
+  </si>
+  <si>
+    <t>分类</t>
+  </si>
+  <si>
+    <t>手机</t>
+  </si>
+  <si>
+    <t>非手机-VR</t>
+  </si>
+  <si>
+    <t>非手机-车载</t>
+  </si>
+  <si>
+    <t>非手机-无人机</t>
+  </si>
+  <si>
+    <t>等等</t>
+  </si>
+  <si>
+    <t>主摄</t>
+  </si>
+  <si>
+    <t>广角</t>
+  </si>
+  <si>
+    <t>长焦</t>
+  </si>
+  <si>
+    <t>鱼眼</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PEL5014CL</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>E</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>P9000</t>
+    </r>
+  </si>
+  <si>
+    <t>双分</t>
+  </si>
+  <si>
+    <t>整体</t>
+  </si>
+  <si>
+    <t>分割位置</t>
+  </si>
+  <si>
+    <t>承靠到终端</t>
+  </si>
+  <si>
+    <t>承靠到外径</t>
+  </si>
+  <si>
+    <t>浇口类型</t>
+  </si>
+  <si>
+    <t>TO</t>
+  </si>
+  <si>
+    <t>T1</t>
+  </si>
+  <si>
+    <t>T2</t>
+  </si>
+  <si>
+    <t>开模方式</t>
+  </si>
+  <si>
+    <t>正向开模</t>
+  </si>
+  <si>
+    <t>反向开模</t>
   </si>
 </sst>
 </file>
@@ -173,7 +467,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -190,7 +484,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -198,6 +506,14 @@
     <font>
       <b/>
       <sz val="14"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -541,7 +857,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -553,43 +869,6 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thin">
         <color auto="1"/>
       </right>
@@ -618,6 +897,48 @@
       <left style="thin">
         <color auto="1"/>
       </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color auto="1"/>
       </right>
@@ -733,10 +1054,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -745,165 +1066,210 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1254,308 +1620,632 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AR3"/>
+  <dimension ref="A1:BJ4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="Z19" sqref="Z19"/>
+    <sheetView tabSelected="1" topLeftCell="AU1" workbookViewId="0">
+      <selection activeCell="BD11" sqref="BD11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
   <cols>
-    <col min="3" max="4" width="12.625" customWidth="1"/>
-    <col min="7" max="7" width="11.75" customWidth="1"/>
-    <col min="9" max="9" width="14.375" customWidth="1"/>
-    <col min="11" max="11" width="14.125" customWidth="1"/>
-    <col min="12" max="12" width="12.75" customWidth="1"/>
-    <col min="13" max="13" width="13" customWidth="1"/>
-    <col min="14" max="14" width="12.375" customWidth="1"/>
-    <col min="15" max="16" width="11.625" customWidth="1"/>
-    <col min="17" max="17" width="12.5" customWidth="1"/>
-    <col min="18" max="19" width="12.375" customWidth="1"/>
-    <col min="20" max="20" width="13.875" customWidth="1"/>
-    <col min="21" max="21" width="14.125" customWidth="1"/>
-    <col min="22" max="22" width="14.25" customWidth="1"/>
-    <col min="29" max="29" width="16.5" customWidth="1"/>
-    <col min="30" max="30" width="14.125" customWidth="1"/>
-    <col min="34" max="34" width="14.375" customWidth="1"/>
-    <col min="36" max="36" width="12.25" customWidth="1"/>
-    <col min="41" max="41" width="20.125" customWidth="1"/>
-    <col min="43" max="43" width="12.375" customWidth="1"/>
+    <col min="5" max="7" width="12.625" customWidth="1"/>
+    <col min="10" max="10" width="11.75" customWidth="1"/>
+    <col min="12" max="12" width="14.375" customWidth="1"/>
+    <col min="14" max="14" width="14.125" customWidth="1"/>
+    <col min="15" max="15" width="12.75" customWidth="1"/>
+    <col min="16" max="16" width="13" customWidth="1"/>
+    <col min="17" max="17" width="12.375" customWidth="1"/>
+    <col min="18" max="19" width="11.625" customWidth="1"/>
+    <col min="20" max="20" width="12.5" customWidth="1"/>
+    <col min="21" max="22" width="12.375" customWidth="1"/>
+    <col min="23" max="23" width="13.875" customWidth="1"/>
+    <col min="24" max="24" width="14.125" customWidth="1"/>
+    <col min="25" max="25" width="14.25" customWidth="1"/>
+    <col min="29" max="29" width="11.75" customWidth="1"/>
+    <col min="34" max="34" width="16.5" customWidth="1"/>
+    <col min="35" max="35" width="14.125" customWidth="1"/>
+    <col min="41" max="41" width="14.375" customWidth="1"/>
+    <col min="43" max="43" width="12.25" customWidth="1"/>
+    <col min="48" max="48" width="20.125" customWidth="1"/>
+    <col min="50" max="50" width="12.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="29.1" customHeight="1" spans="1:44">
-      <c r="A1" s="1" t="s">
+    <row r="1" ht="29.1" customHeight="1" spans="1:62">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
-      <c r="V1" s="2"/>
-      <c r="W1" s="2"/>
-      <c r="X1" s="2"/>
-      <c r="Y1" s="2"/>
-      <c r="Z1" s="2"/>
-      <c r="AA1" s="2"/>
-      <c r="AB1" s="2"/>
-      <c r="AC1" s="2"/>
-      <c r="AD1" s="2"/>
-      <c r="AE1" s="2"/>
-      <c r="AF1" s="2"/>
-      <c r="AG1" s="2"/>
-      <c r="AH1" s="2"/>
-      <c r="AI1" s="2"/>
-      <c r="AJ1" s="2"/>
-      <c r="AK1" s="2"/>
-      <c r="AL1" s="2"/>
-      <c r="AM1" s="2"/>
-      <c r="AN1" s="2"/>
-      <c r="AO1" s="2"/>
-      <c r="AP1" s="2"/>
-      <c r="AQ1" s="2"/>
-      <c r="AR1" s="2"/>
-    </row>
-    <row r="2" ht="21" customHeight="1" spans="1:44">
-      <c r="A2" s="3" t="s">
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="8"/>
+      <c r="P1" s="8"/>
+      <c r="Q1" s="8"/>
+      <c r="R1" s="8"/>
+      <c r="S1" s="8"/>
+      <c r="T1" s="8"/>
+      <c r="U1" s="8"/>
+      <c r="V1" s="8"/>
+      <c r="W1" s="8"/>
+      <c r="X1" s="8"/>
+      <c r="Y1" s="8"/>
+      <c r="Z1" s="8"/>
+      <c r="AA1" s="8"/>
+      <c r="AB1" s="8"/>
+      <c r="AC1" s="8"/>
+      <c r="AD1" s="8"/>
+      <c r="AE1" s="8"/>
+      <c r="AF1" s="8"/>
+      <c r="AG1" s="8"/>
+      <c r="AH1" s="8"/>
+      <c r="AI1" s="8"/>
+      <c r="AJ1" s="8"/>
+      <c r="AK1" s="8"/>
+      <c r="AL1" s="8"/>
+      <c r="AM1" s="8"/>
+      <c r="AN1" s="8"/>
+      <c r="AO1" s="8"/>
+      <c r="AP1" s="8"/>
+      <c r="AQ1" s="8"/>
+      <c r="AR1" s="8"/>
+      <c r="AS1" s="8"/>
+      <c r="AT1" s="8"/>
+      <c r="AU1" s="8"/>
+      <c r="AV1" s="8"/>
+      <c r="AW1" s="8"/>
+      <c r="AX1" s="8"/>
+      <c r="AY1" s="8"/>
+      <c r="AZ1" s="8"/>
+      <c r="BA1" s="8"/>
+      <c r="BB1" s="8"/>
+      <c r="BC1" s="8"/>
+      <c r="BD1" s="8"/>
+      <c r="BE1" s="8"/>
+      <c r="BF1" s="8"/>
+      <c r="BG1" s="8"/>
+      <c r="BH1" s="8"/>
+      <c r="BI1" s="8"/>
+      <c r="BJ1" s="8"/>
+    </row>
+    <row r="2" ht="21" customHeight="1" spans="1:62">
+      <c r="A2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4" t="s">
+      <c r="G2" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4" t="s">
+      <c r="H2" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="P2" s="4"/>
-      <c r="Q2" s="4"/>
-      <c r="R2" s="4" t="s">
+      <c r="I2" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="S2" s="4"/>
-      <c r="T2" s="4"/>
-      <c r="U2" s="4"/>
-      <c r="V2" s="4"/>
-      <c r="W2" s="4" t="s">
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="17"/>
+      <c r="N2" s="17"/>
+      <c r="O2" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="X2" s="4"/>
-      <c r="Y2" s="4" t="s">
+      <c r="P2" s="17"/>
+      <c r="Q2" s="17"/>
+      <c r="R2" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="Z2" s="4"/>
-      <c r="AA2" s="5" t="s">
+      <c r="S2" s="17"/>
+      <c r="T2" s="17"/>
+      <c r="U2" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="AB2" s="6"/>
-      <c r="AC2" s="6"/>
-      <c r="AD2" s="6"/>
-      <c r="AE2" s="7"/>
-      <c r="AF2" s="4" t="s">
+      <c r="V2" s="17"/>
+      <c r="W2" s="17"/>
+      <c r="X2" s="17"/>
+      <c r="Y2" s="17"/>
+      <c r="Z2" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="AG2" s="4"/>
-      <c r="AH2" s="4"/>
-      <c r="AI2" s="4"/>
-      <c r="AJ2" s="8" t="s">
+      <c r="AA2" s="17"/>
+      <c r="AB2" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="AK2" s="4" t="s">
+      <c r="AC2" s="17"/>
+      <c r="AD2" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="AL2" s="4"/>
-      <c r="AM2" s="4"/>
-      <c r="AN2" s="3" t="s">
+      <c r="AE2" s="20"/>
+      <c r="AF2" s="20"/>
+      <c r="AG2" s="20"/>
+      <c r="AH2" s="20"/>
+      <c r="AI2" s="20"/>
+      <c r="AJ2" s="21"/>
+      <c r="AK2" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="AO2" s="3" t="s">
+      <c r="AL2" s="17"/>
+      <c r="AM2" s="17"/>
+      <c r="AN2" s="17"/>
+      <c r="AO2" s="17"/>
+      <c r="AP2" s="17"/>
+      <c r="AQ2" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="AP2" s="4" t="s">
+      <c r="AR2" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="AQ2" s="4"/>
-      <c r="AR2" s="3" t="s">
+      <c r="AS2" s="17"/>
+      <c r="AT2" s="17"/>
+      <c r="AU2" s="13" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="3" ht="34.5" customHeight="1" spans="1:44">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3" t="s">
+      <c r="AV2" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="AW2" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="AX2" s="17"/>
+      <c r="AY2" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="AZ2" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="BA2" s="20"/>
+      <c r="BB2" s="20"/>
+      <c r="BC2" s="20"/>
+      <c r="BD2" s="20"/>
+      <c r="BE2" s="20"/>
+      <c r="BF2" s="20"/>
+      <c r="BG2" s="20"/>
+      <c r="BH2" s="20"/>
+      <c r="BI2" s="20"/>
+      <c r="BJ2" s="21"/>
+    </row>
+    <row r="3" ht="52" customHeight="1" spans="1:62">
+      <c r="A3" s="14"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="J3" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="K3" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="M3" s="3" t="s">
+      <c r="L3" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="N3" s="3" t="s">
+      <c r="M3" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="O3" s="3" t="s">
+      <c r="N3" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="P3" s="3" t="s">
+      <c r="O3" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="Q3" s="3" t="s">
+      <c r="P3" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="R3" s="3" t="s">
+      <c r="Q3" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="S3" s="3" t="s">
+      <c r="R3" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="T3" s="3" t="s">
+      <c r="S3" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="U3" s="3" t="s">
+      <c r="T3" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="V3" s="3" t="s">
+      <c r="U3" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="W3" s="3" t="s">
+      <c r="V3" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="X3" s="3" t="s">
+      <c r="W3" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="Y3" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="Z3" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="AA3" s="3" t="s">
+      <c r="X3" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="AB3" s="3" t="s">
+      <c r="Y3" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="AC3" s="3" t="s">
+      <c r="Z3" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="AD3" s="3" t="s">
+      <c r="AA3" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="AE3" s="3" t="s">
+      <c r="AB3" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC3" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD3" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="AF3" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="AG3" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="AH3" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="AI3" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="AJ3" s="9"/>
-      <c r="AK3" s="3" t="s">
+      <c r="AE3" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="AL3" s="3" t="s">
+      <c r="AF3" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="AM3" s="3" t="s">
+      <c r="AG3" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="AN3" s="3"/>
-      <c r="AO3" s="3"/>
-      <c r="AP3" s="3" t="s">
+      <c r="AH3" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="AQ3" s="3" t="s">
+      <c r="AI3" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="AR3" s="3"/>
+      <c r="AJ3" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="AK3" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="AL3" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="AM3" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="AN3" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="AO3" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="AP3" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="AQ3" s="10"/>
+      <c r="AR3" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="AS3" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="AT3" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="AU3" s="15"/>
+      <c r="AV3" s="15"/>
+      <c r="AW3" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="AX3" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="AY3" s="15"/>
+      <c r="AZ3" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="BA3" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="BB3" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="BC3" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="BD3" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="BE3" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="BF3" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="BG3" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="BH3" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="BI3" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="BJ3" s="23" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="39:40">
+      <c r="AM4" s="22"/>
+      <c r="AN4" s="22"/>
     </row>
   </sheetData>
-  <mergeCells count="20">
-    <mergeCell ref="A1:AR1"/>
-    <mergeCell ref="F2:K2"/>
-    <mergeCell ref="L2:N2"/>
+  <mergeCells count="24">
+    <mergeCell ref="A1:BJ1"/>
+    <mergeCell ref="I2:N2"/>
     <mergeCell ref="O2:Q2"/>
-    <mergeCell ref="R2:V2"/>
-    <mergeCell ref="W2:X2"/>
-    <mergeCell ref="Y2:Z2"/>
-    <mergeCell ref="AA2:AE2"/>
-    <mergeCell ref="AF2:AI2"/>
-    <mergeCell ref="AK2:AM2"/>
-    <mergeCell ref="AP2:AQ2"/>
+    <mergeCell ref="R2:T2"/>
+    <mergeCell ref="U2:Y2"/>
+    <mergeCell ref="Z2:AA2"/>
+    <mergeCell ref="AB2:AC2"/>
+    <mergeCell ref="AD2:AJ2"/>
+    <mergeCell ref="AK2:AP2"/>
+    <mergeCell ref="AR2:AT2"/>
+    <mergeCell ref="AW2:AX2"/>
+    <mergeCell ref="AZ2:BJ2"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="D2:D3"/>
     <mergeCell ref="E2:E3"/>
-    <mergeCell ref="AJ2:AJ3"/>
-    <mergeCell ref="AN2:AN3"/>
-    <mergeCell ref="AO2:AO3"/>
-    <mergeCell ref="AR2:AR3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="AQ2:AQ3"/>
+    <mergeCell ref="AU2:AU3"/>
+    <mergeCell ref="AV2:AV3"/>
+    <mergeCell ref="AY2:AY3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="B1:F29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C29" sqref="B1:C29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <cols>
+    <col min="3" max="3" width="13.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:3">
+      <c r="B1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="2:6">
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F2" s="3"/>
+    </row>
+    <row r="3" spans="2:3">
+      <c r="B3" s="4"/>
+      <c r="C3" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3">
+      <c r="B4" s="4"/>
+      <c r="C4" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3">
+      <c r="B5" s="4"/>
+      <c r="C5" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3">
+      <c r="B6" s="5"/>
+      <c r="C6" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3">
+      <c r="B7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3">
+      <c r="B8" s="4"/>
+      <c r="C8" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3">
+      <c r="B9" s="4"/>
+      <c r="C9" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3">
+      <c r="B10" s="4"/>
+      <c r="C10" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3">
+      <c r="B11" s="5"/>
+      <c r="C11" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3">
+      <c r="B12" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3">
+      <c r="B13" s="4"/>
+      <c r="C13" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3">
+      <c r="B14" s="4"/>
+      <c r="C14" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3">
+      <c r="B15" s="5"/>
+      <c r="C15" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3">
+      <c r="B16" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3">
+      <c r="B17" s="4"/>
+      <c r="C17" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3">
+      <c r="B18" s="5"/>
+      <c r="C18" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3">
+      <c r="B19" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3">
+      <c r="B20" s="5"/>
+      <c r="C20" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3">
+      <c r="B21" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3">
+      <c r="B22" s="5"/>
+      <c r="C22" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3">
+      <c r="B23" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3">
+      <c r="B24" s="4"/>
+      <c r="C24" s="7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3">
+      <c r="B25" s="4"/>
+      <c r="C25" s="7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3">
+      <c r="B26" s="5"/>
+      <c r="C26" s="7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3">
+      <c r="B27" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3">
+      <c r="B28" s="4"/>
+      <c r="C28" s="7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3">
+      <c r="B29" s="5"/>
+      <c r="C29" s="7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="B2:B6"/>
+    <mergeCell ref="B7:B11"/>
+    <mergeCell ref="B12:B15"/>
+    <mergeCell ref="B16:B18"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="B23:B26"/>
+    <mergeCell ref="B27:B29"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/microservice-production/microservice-data-analysis-api/src/main/resources/excelTemplate/shapingResultData.xlsx
+++ b/microservice-production/microservice-data-analysis-api/src/main/resources/excelTemplate/shapingResultData.xlsx
@@ -4,18 +4,18 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20925" windowHeight="9840" tabRatio="293"/>
+    <workbookView windowWidth="20925" windowHeight="9840" tabRatio="293" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="数据搜集模板" sheetId="1" r:id="rId1"/>
-    <sheet name="数据格式备注" sheetId="2" r:id="rId2"/>
+    <sheet name="数据格式说明" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="135">
   <si>
     <t>项目量产成型结果数据表</t>
   </si>
@@ -56,45 +56,10 @@
     <t>外径</t>
   </si>
   <si>
-    <r>
-      <t>白片</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>平面度</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>分割位</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>台阶</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>均值</t>
-    </r>
+    <t>白片平面度</t>
+  </si>
+  <si>
+    <t>分割位台阶均值</t>
   </si>
   <si>
     <t>白片面型</t>
@@ -109,18 +74,7 @@
     <t>镀膜片模拟结果</t>
   </si>
   <si>
-    <r>
-      <t>分型面</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>毛边(um)</t>
-    </r>
+    <t>分型面毛边(um)</t>
   </si>
   <si>
     <t>熔接线（黄光灯下是否存在）</t>
@@ -153,120 +107,37 @@
     <t>R2矢高极差(um)</t>
   </si>
   <si>
-    <t>白片外径偏心(%/规格)</t>
-  </si>
-  <si>
-    <t>白片坎合偏心(%/规格)</t>
-  </si>
-  <si>
-    <t>白片面间偏心(%/规格)</t>
-  </si>
-  <si>
-    <t>退火制程</t>
-  </si>
-  <si>
-    <t>BP坎合圆度(um)</t>
-  </si>
-  <si>
-    <t>DMP坎合圆度(um)</t>
-  </si>
-  <si>
-    <r>
-      <t>白片</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>外径均值(um)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>白片</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>外径极差(um)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>白片</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>外径圆度(um)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>白片</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>外径收缩率(‰)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>白片</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>外径粗糙度(um)</t>
-    </r>
+    <t>白片外径偏心(%/规格)-泰勒</t>
+  </si>
+  <si>
+    <t>白片坎合偏心(%/规格)-400T</t>
+  </si>
+  <si>
+    <t>白片面间偏心(%/规格)-泰勒</t>
+  </si>
+  <si>
+    <t>退火制程（退火温度/时间）</t>
+  </si>
+  <si>
+    <t>BP坎合圆度(um)-400T</t>
+  </si>
+  <si>
+    <t>DMP坎合圆度(um)-400T</t>
+  </si>
+  <si>
+    <t>白片外径均值(um)-三坐标</t>
+  </si>
+  <si>
+    <t>白片外径极差(um)-三坐标</t>
+  </si>
+  <si>
+    <t>白片外径圆度(um)-三坐标</t>
+  </si>
+  <si>
+    <t>白片外径收缩率(‰)-三坐标</t>
+  </si>
+  <si>
+    <t>白片外径粗糙度(nm)</t>
   </si>
   <si>
     <t>R1(um)</t>
@@ -344,37 +215,25 @@
     <t>项目量产</t>
   </si>
   <si>
-    <t>名称</t>
-  </si>
-  <si>
-    <t>分类</t>
+    <t>MTF平均良率</t>
+  </si>
+  <si>
+    <t>量产时长（首次）</t>
+  </si>
+  <si>
+    <t>量产出货量（首次）</t>
+  </si>
+  <si>
+    <t>项目立项时间</t>
   </si>
   <si>
     <t>手机</t>
   </si>
   <si>
-    <t>非手机-VR</t>
-  </si>
-  <si>
-    <t>非手机-车载</t>
-  </si>
-  <si>
-    <t>非手机-无人机</t>
-  </si>
-  <si>
-    <t>等等</t>
-  </si>
-  <si>
-    <t>主摄</t>
-  </si>
-  <si>
-    <t>广角</t>
-  </si>
-  <si>
-    <t>长焦</t>
-  </si>
-  <si>
-    <t>鱼眼</t>
+    <t>后置主摄</t>
+  </si>
+  <si>
+    <t>3P</t>
   </si>
   <si>
     <r>
@@ -385,7 +244,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>A</t>
+      <t>P</t>
     </r>
     <r>
       <rPr>
@@ -395,8 +254,32 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>PEL5014CL</t>
+      <t>1</t>
     </r>
+  </si>
+  <si>
+    <t>EP3500</t>
+  </si>
+  <si>
+    <t>N1</t>
+  </si>
+  <si>
+    <t>12双分推板-50（套筒）</t>
+  </si>
+  <si>
+    <t>根据项目实际数据填写，注意数据输入的格式，如偏心合格率是%/规格，前面是偏心合格的百分比，后面是偏心管控要求，中间用“/”连接,例如100%/1um。退火制程前面是退火温度，后面是退火时间，中间用“/”连接，例如85℃/6H。</t>
+  </si>
+  <si>
+    <t>若数据有缺失，直接不填，若结构上无此特征，如整体模具无分割位数值，则输入“/”</t>
+  </si>
+  <si>
+    <t>填R1面和R2面最大值，不区分R1面和R2面</t>
+  </si>
+  <si>
+    <t>根据项目实际数据输入</t>
+  </si>
+  <si>
+    <t>与白片相同，填R1面和R2面最大值，不区分R1面和R2面</t>
   </si>
   <si>
     <r>
@@ -407,7 +290,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>E</t>
+      <t>R</t>
     </r>
     <r>
       <rPr>
@@ -417,44 +300,278 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>P9000</t>
+      <t>1、R2、R1&amp;R2模拟结果截图上传</t>
     </r>
   </si>
   <si>
-    <t>双分</t>
-  </si>
-  <si>
-    <t>整体</t>
-  </si>
-  <si>
-    <t>分割位置</t>
-  </si>
-  <si>
-    <t>承靠到终端</t>
-  </si>
-  <si>
-    <t>承靠到外径</t>
-  </si>
-  <si>
-    <t>浇口类型</t>
-  </si>
-  <si>
-    <t>TO</t>
-  </si>
-  <si>
-    <t>T1</t>
-  </si>
-  <si>
-    <t>T2</t>
-  </si>
-  <si>
-    <t>开模方式</t>
-  </si>
-  <si>
-    <t>正向开模</t>
-  </si>
-  <si>
-    <t>反向开模</t>
+    <t>输入黄光灯下熔接线长度，若无，输入“0”；若有，输入实际长度</t>
+  </si>
+  <si>
+    <t>仅结构部分熔接线、流痕、气泡、脏污、白点、拉伤、脱模不良等问题，若无外观问题，输入“/”</t>
+  </si>
+  <si>
+    <t>填写前面数据异常的原因，如为满足组装需求而补正的特定面型等</t>
+  </si>
+  <si>
+    <t>档位：穴位数/总穴数，例如A:2/16；B:5/16；C:5/16；NG:4/16</t>
+  </si>
+  <si>
+    <t>是</t>
+  </si>
+  <si>
+    <t>非手机-VR</t>
+  </si>
+  <si>
+    <t>后置广角</t>
+  </si>
+  <si>
+    <t>4P</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>P</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <t>……</t>
+  </si>
+  <si>
+    <t>N2</t>
+  </si>
+  <si>
+    <t>12双分推板-50</t>
+  </si>
+  <si>
+    <t>否</t>
+  </si>
+  <si>
+    <t>非手机-车载</t>
+  </si>
+  <si>
+    <t>后置长焦</t>
+  </si>
+  <si>
+    <t>5P</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>P</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+  </si>
+  <si>
+    <t>EP10000</t>
+  </si>
+  <si>
+    <t>N1A</t>
+  </si>
+  <si>
+    <t>12双分推板-50-9</t>
+  </si>
+  <si>
+    <t>非手机-无人机</t>
+  </si>
+  <si>
+    <t>后置景深</t>
+  </si>
+  <si>
+    <t>6P</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>P</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4</t>
+    </r>
+  </si>
+  <si>
+    <t>SP5590</t>
+  </si>
+  <si>
+    <t>16双分推板-50</t>
+  </si>
+  <si>
+    <t>非手机-运动相机</t>
+  </si>
+  <si>
+    <t>前置小头</t>
+  </si>
+  <si>
+    <t>7P</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>P</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5</t>
+    </r>
+  </si>
+  <si>
+    <t>APL5014(04)</t>
+  </si>
+  <si>
+    <t>16前排</t>
+  </si>
+  <si>
+    <t>CSP镜头</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>G5P</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>P</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>6</t>
+    </r>
+  </si>
+  <si>
+    <t>K26R</t>
+  </si>
+  <si>
+    <t>16后排</t>
+  </si>
+  <si>
+    <t>前置主摄</t>
+  </si>
+  <si>
+    <t>1G6P</t>
+  </si>
+  <si>
+    <t>T62R</t>
+  </si>
+  <si>
+    <t>24整体-52</t>
+  </si>
+  <si>
+    <t>屏下指纹</t>
+  </si>
+  <si>
+    <t>2G4P</t>
+  </si>
+  <si>
+    <t>APP600</t>
+  </si>
+  <si>
+    <t>24整体-60</t>
+  </si>
+  <si>
+    <t>红外镜头</t>
+  </si>
+  <si>
+    <t>24整体-66</t>
+  </si>
+  <si>
+    <t>微距景深</t>
+  </si>
+  <si>
+    <t>24整体-75</t>
+  </si>
+  <si>
+    <t>景深镜头</t>
+  </si>
+  <si>
+    <t>24整体热流道-52</t>
+  </si>
+  <si>
+    <t>24整体热流道-60</t>
   </si>
 </sst>
 </file>
@@ -467,7 +584,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -478,20 +595,25 @@
     <font>
       <b/>
       <sz val="18"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -504,15 +626,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="14"/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="14"/>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -663,12 +784,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -857,7 +984,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -881,71 +1008,12 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
         <color auto="1"/>
       </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1054,10 +1122,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1066,36 +1134,33 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -1105,169 +1170,166 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1620,383 +1682,410 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:BJ4"/>
+  <dimension ref="A1:BN3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AU1" workbookViewId="0">
-      <selection activeCell="BD11" sqref="BD11"/>
+    <sheetView topLeftCell="AY1" workbookViewId="0">
+      <selection activeCell="BJ13" sqref="BJ13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
   <cols>
-    <col min="5" max="7" width="12.625" customWidth="1"/>
-    <col min="10" max="10" width="11.75" customWidth="1"/>
-    <col min="12" max="12" width="14.375" customWidth="1"/>
-    <col min="14" max="14" width="14.125" customWidth="1"/>
-    <col min="15" max="15" width="12.75" customWidth="1"/>
-    <col min="16" max="16" width="13" customWidth="1"/>
-    <col min="17" max="17" width="12.375" customWidth="1"/>
-    <col min="18" max="19" width="11.625" customWidth="1"/>
-    <col min="20" max="20" width="12.5" customWidth="1"/>
-    <col min="21" max="22" width="12.375" customWidth="1"/>
-    <col min="23" max="23" width="13.875" customWidth="1"/>
-    <col min="24" max="24" width="14.125" customWidth="1"/>
-    <col min="25" max="25" width="14.25" customWidth="1"/>
-    <col min="29" max="29" width="11.75" customWidth="1"/>
-    <col min="34" max="34" width="16.5" customWidth="1"/>
-    <col min="35" max="35" width="14.125" customWidth="1"/>
-    <col min="41" max="41" width="14.375" customWidth="1"/>
-    <col min="43" max="43" width="12.25" customWidth="1"/>
-    <col min="48" max="48" width="20.125" customWidth="1"/>
-    <col min="50" max="50" width="12.375" customWidth="1"/>
+    <col min="1" max="4" width="9" style="21"/>
+    <col min="5" max="7" width="12.625" style="21" customWidth="1"/>
+    <col min="8" max="9" width="9" style="21"/>
+    <col min="10" max="10" width="11.75" style="21" customWidth="1"/>
+    <col min="11" max="11" width="9" style="21"/>
+    <col min="12" max="12" width="14.375" style="21" customWidth="1"/>
+    <col min="13" max="13" width="9" style="21"/>
+    <col min="14" max="14" width="14.125" style="21" customWidth="1"/>
+    <col min="15" max="15" width="12.75" style="21" customWidth="1"/>
+    <col min="16" max="16" width="13" style="21" customWidth="1"/>
+    <col min="17" max="17" width="12.375" style="21" customWidth="1"/>
+    <col min="18" max="19" width="11.625" style="21" customWidth="1"/>
+    <col min="20" max="20" width="12.5" style="21" customWidth="1"/>
+    <col min="21" max="22" width="12.375" style="21" customWidth="1"/>
+    <col min="23" max="23" width="13.875" style="21" customWidth="1"/>
+    <col min="24" max="24" width="14.125" style="21" customWidth="1"/>
+    <col min="25" max="25" width="14.25" style="21" customWidth="1"/>
+    <col min="26" max="28" width="9" style="21"/>
+    <col min="29" max="29" width="11.75" style="21" customWidth="1"/>
+    <col min="30" max="33" width="9" style="21"/>
+    <col min="34" max="34" width="16.5" style="21" customWidth="1"/>
+    <col min="35" max="35" width="14.125" style="21" customWidth="1"/>
+    <col min="36" max="40" width="9" style="21"/>
+    <col min="41" max="41" width="14.375" style="21" customWidth="1"/>
+    <col min="42" max="42" width="9" style="21"/>
+    <col min="43" max="43" width="12.25" style="21" customWidth="1"/>
+    <col min="44" max="47" width="9" style="21"/>
+    <col min="48" max="48" width="20.125" style="21" customWidth="1"/>
+    <col min="49" max="49" width="9" style="21"/>
+    <col min="50" max="50" width="12.375" style="21" customWidth="1"/>
+    <col min="51" max="16384" width="9" style="21"/>
   </cols>
   <sheetData>
-    <row r="1" ht="29.1" customHeight="1" spans="1:62">
-      <c r="A1" s="8" t="s">
+    <row r="1" ht="29.1" customHeight="1" spans="1:66">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
-      <c r="N1" s="8"/>
-      <c r="O1" s="8"/>
-      <c r="P1" s="8"/>
-      <c r="Q1" s="8"/>
-      <c r="R1" s="8"/>
-      <c r="S1" s="8"/>
-      <c r="T1" s="8"/>
-      <c r="U1" s="8"/>
-      <c r="V1" s="8"/>
-      <c r="W1" s="8"/>
-      <c r="X1" s="8"/>
-      <c r="Y1" s="8"/>
-      <c r="Z1" s="8"/>
-      <c r="AA1" s="8"/>
-      <c r="AB1" s="8"/>
-      <c r="AC1" s="8"/>
-      <c r="AD1" s="8"/>
-      <c r="AE1" s="8"/>
-      <c r="AF1" s="8"/>
-      <c r="AG1" s="8"/>
-      <c r="AH1" s="8"/>
-      <c r="AI1" s="8"/>
-      <c r="AJ1" s="8"/>
-      <c r="AK1" s="8"/>
-      <c r="AL1" s="8"/>
-      <c r="AM1" s="8"/>
-      <c r="AN1" s="8"/>
-      <c r="AO1" s="8"/>
-      <c r="AP1" s="8"/>
-      <c r="AQ1" s="8"/>
-      <c r="AR1" s="8"/>
-      <c r="AS1" s="8"/>
-      <c r="AT1" s="8"/>
-      <c r="AU1" s="8"/>
-      <c r="AV1" s="8"/>
-      <c r="AW1" s="8"/>
-      <c r="AX1" s="8"/>
-      <c r="AY1" s="8"/>
-      <c r="AZ1" s="8"/>
-      <c r="BA1" s="8"/>
-      <c r="BB1" s="8"/>
-      <c r="BC1" s="8"/>
-      <c r="BD1" s="8"/>
-      <c r="BE1" s="8"/>
-      <c r="BF1" s="8"/>
-      <c r="BG1" s="8"/>
-      <c r="BH1" s="8"/>
-      <c r="BI1" s="8"/>
-      <c r="BJ1" s="8"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+      <c r="W1" s="1"/>
+      <c r="X1" s="1"/>
+      <c r="Y1" s="1"/>
+      <c r="Z1" s="1"/>
+      <c r="AA1" s="1"/>
+      <c r="AB1" s="1"/>
+      <c r="AC1" s="1"/>
+      <c r="AD1" s="1"/>
+      <c r="AE1" s="1"/>
+      <c r="AF1" s="1"/>
+      <c r="AG1" s="1"/>
+      <c r="AH1" s="1"/>
+      <c r="AI1" s="1"/>
+      <c r="AJ1" s="1"/>
+      <c r="AK1" s="1"/>
+      <c r="AL1" s="1"/>
+      <c r="AM1" s="1"/>
+      <c r="AN1" s="1"/>
+      <c r="AO1" s="1"/>
+      <c r="AP1" s="1"/>
+      <c r="AQ1" s="1"/>
+      <c r="AR1" s="1"/>
+      <c r="AS1" s="1"/>
+      <c r="AT1" s="1"/>
+      <c r="AU1" s="1"/>
+      <c r="AV1" s="1"/>
+      <c r="AW1" s="1"/>
+      <c r="AX1" s="1"/>
+      <c r="AY1" s="1"/>
+      <c r="AZ1" s="1"/>
+      <c r="BA1" s="1"/>
+      <c r="BB1" s="1"/>
+      <c r="BC1" s="1"/>
+      <c r="BD1" s="1"/>
+      <c r="BE1" s="1"/>
+      <c r="BF1" s="1"/>
+      <c r="BG1" s="1"/>
+      <c r="BH1" s="1"/>
+      <c r="BI1" s="1"/>
+      <c r="BJ1" s="1"/>
+      <c r="BK1" s="1"/>
+      <c r="BL1" s="1"/>
+      <c r="BM1" s="1"/>
+      <c r="BN1" s="1"/>
     </row>
-    <row r="2" ht="21" customHeight="1" spans="1:62">
-      <c r="A2" s="9" t="s">
+    <row r="2" ht="21" customHeight="1" spans="1:66">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="F2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="G2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="13" t="s">
+      <c r="H2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="17" t="s">
+      <c r="I2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="17"/>
-      <c r="K2" s="17"/>
-      <c r="L2" s="17"/>
-      <c r="M2" s="17"/>
-      <c r="N2" s="17"/>
-      <c r="O2" s="17" t="s">
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="P2" s="17"/>
-      <c r="Q2" s="17"/>
-      <c r="R2" s="17" t="s">
+      <c r="P2" s="5"/>
+      <c r="Q2" s="5"/>
+      <c r="R2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="S2" s="17"/>
-      <c r="T2" s="17"/>
-      <c r="U2" s="17" t="s">
+      <c r="S2" s="5"/>
+      <c r="T2" s="5"/>
+      <c r="U2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="V2" s="17"/>
-      <c r="W2" s="17"/>
-      <c r="X2" s="17"/>
-      <c r="Y2" s="17"/>
-      <c r="Z2" s="18" t="s">
+      <c r="V2" s="5"/>
+      <c r="W2" s="5"/>
+      <c r="X2" s="5"/>
+      <c r="Y2" s="5"/>
+      <c r="Z2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="AA2" s="17"/>
-      <c r="AB2" s="17" t="s">
+      <c r="AA2" s="5"/>
+      <c r="AB2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="AC2" s="17"/>
-      <c r="AD2" s="19" t="s">
+      <c r="AC2" s="5"/>
+      <c r="AD2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="AE2" s="20"/>
-      <c r="AF2" s="20"/>
-      <c r="AG2" s="20"/>
-      <c r="AH2" s="20"/>
-      <c r="AI2" s="20"/>
-      <c r="AJ2" s="21"/>
-      <c r="AK2" s="17" t="s">
+      <c r="AE2" s="5"/>
+      <c r="AF2" s="5"/>
+      <c r="AG2" s="5"/>
+      <c r="AH2" s="5"/>
+      <c r="AI2" s="5"/>
+      <c r="AJ2" s="5"/>
+      <c r="AK2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="AL2" s="17"/>
-      <c r="AM2" s="17"/>
-      <c r="AN2" s="17"/>
-      <c r="AO2" s="17"/>
-      <c r="AP2" s="17"/>
-      <c r="AQ2" s="12" t="s">
+      <c r="AL2" s="5"/>
+      <c r="AM2" s="5"/>
+      <c r="AN2" s="5"/>
+      <c r="AO2" s="5"/>
+      <c r="AP2" s="5"/>
+      <c r="AQ2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="AR2" s="17" t="s">
+      <c r="AR2" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="AS2" s="17"/>
-      <c r="AT2" s="17"/>
-      <c r="AU2" s="13" t="s">
+      <c r="AS2" s="5"/>
+      <c r="AT2" s="5"/>
+      <c r="AU2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="AV2" s="10" t="s">
+      <c r="AV2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="AW2" s="17" t="s">
+      <c r="AW2" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="AX2" s="17"/>
-      <c r="AY2" s="10" t="s">
+      <c r="AX2" s="5"/>
+      <c r="AY2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="AZ2" s="19" t="s">
+      <c r="AZ2" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="BA2" s="20"/>
-      <c r="BB2" s="20"/>
-      <c r="BC2" s="20"/>
-      <c r="BD2" s="20"/>
-      <c r="BE2" s="20"/>
-      <c r="BF2" s="20"/>
-      <c r="BG2" s="20"/>
-      <c r="BH2" s="20"/>
-      <c r="BI2" s="20"/>
-      <c r="BJ2" s="21"/>
+      <c r="BA2" s="5"/>
+      <c r="BB2" s="5"/>
+      <c r="BC2" s="5"/>
+      <c r="BD2" s="5"/>
+      <c r="BE2" s="5"/>
+      <c r="BF2" s="5"/>
+      <c r="BG2" s="5"/>
+      <c r="BH2" s="5"/>
+      <c r="BI2" s="5"/>
+      <c r="BJ2" s="5"/>
+      <c r="BK2" s="5"/>
+      <c r="BL2" s="5"/>
+      <c r="BM2" s="5"/>
+      <c r="BN2" s="5"/>
     </row>
-    <row r="3" ht="52" customHeight="1" spans="1:62">
-      <c r="A3" s="14"/>
-      <c r="B3" s="15"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="15" t="s">
+    <row r="3" ht="51.95" customHeight="1" spans="1:66">
+      <c r="A3" s="2"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="J3" s="15" t="s">
+      <c r="J3" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="K3" s="15" t="s">
+      <c r="K3" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="L3" s="15" t="s">
+      <c r="L3" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="M3" s="15" t="s">
+      <c r="M3" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="N3" s="15" t="s">
+      <c r="N3" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="O3" s="15" t="s">
+      <c r="O3" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="P3" s="15" t="s">
+      <c r="P3" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="Q3" s="15" t="s">
+      <c r="Q3" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="R3" s="15" t="s">
+      <c r="R3" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="S3" s="15" t="s">
+      <c r="S3" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="T3" s="15" t="s">
+      <c r="T3" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="U3" s="16" t="s">
+      <c r="U3" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="V3" s="16" t="s">
+      <c r="V3" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="W3" s="15" t="s">
+      <c r="W3" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="X3" s="16" t="s">
+      <c r="X3" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="Y3" s="16" t="s">
+      <c r="Y3" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="Z3" s="15" t="s">
+      <c r="Z3" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AA3" s="15" t="s">
+      <c r="AA3" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="AB3" s="15" t="s">
+      <c r="AB3" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AC3" s="15" t="s">
+      <c r="AC3" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="AD3" s="15" t="s">
+      <c r="AD3" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="AE3" s="15" t="s">
+      <c r="AE3" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="AF3" s="16" t="s">
+      <c r="AF3" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="AG3" s="16" t="s">
+      <c r="AG3" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="AH3" s="15" t="s">
+      <c r="AH3" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="AI3" s="15" t="s">
+      <c r="AI3" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="AJ3" s="15" t="s">
+      <c r="AJ3" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="AK3" s="15" t="s">
+      <c r="AK3" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="AL3" s="15" t="s">
+      <c r="AL3" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="AM3" s="16" t="s">
+      <c r="AM3" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="AN3" s="16" t="s">
+      <c r="AN3" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="AO3" s="15" t="s">
+      <c r="AO3" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="AP3" s="15" t="s">
+      <c r="AP3" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="AQ3" s="10"/>
-      <c r="AR3" s="15" t="s">
+      <c r="AQ3" s="3"/>
+      <c r="AR3" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="AS3" s="15" t="s">
+      <c r="AS3" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="AT3" s="15" t="s">
+      <c r="AT3" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="AU3" s="15"/>
-      <c r="AV3" s="15"/>
-      <c r="AW3" s="15" t="s">
+      <c r="AU3" s="3"/>
+      <c r="AV3" s="3"/>
+      <c r="AW3" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="AX3" s="15" t="s">
+      <c r="AX3" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="AY3" s="15"/>
-      <c r="AZ3" s="16" t="s">
+      <c r="AY3" s="3"/>
+      <c r="AZ3" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="BA3" s="23" t="s">
+      <c r="BA3" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="BB3" s="23" t="s">
+      <c r="BB3" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="BC3" s="23" t="s">
+      <c r="BC3" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="BD3" s="24" t="s">
+      <c r="BD3" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="BE3" s="24" t="s">
+      <c r="BE3" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="BF3" s="24" t="s">
+      <c r="BF3" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="BG3" s="24" t="s">
+      <c r="BG3" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="BH3" s="24" t="s">
+      <c r="BH3" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="BI3" s="24" t="s">
+      <c r="BI3" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="BJ3" s="23" t="s">
+      <c r="BJ3" s="14" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="4" spans="39:40">
-      <c r="AM4" s="22"/>
-      <c r="AN4" s="22"/>
+      <c r="BK3" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="BL3" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="BM3" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="BN3" s="22" t="s">
+        <v>69</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="A1:BJ1"/>
+    <mergeCell ref="A1:BN1"/>
     <mergeCell ref="I2:N2"/>
     <mergeCell ref="O2:Q2"/>
     <mergeCell ref="R2:T2"/>
@@ -2007,7 +2096,7 @@
     <mergeCell ref="AK2:AP2"/>
     <mergeCell ref="AR2:AT2"/>
     <mergeCell ref="AW2:AX2"/>
-    <mergeCell ref="AZ2:BJ2"/>
+    <mergeCell ref="AZ2:BN2"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:C3"/>
@@ -2030,222 +2119,1017 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B1:F29"/>
+  <dimension ref="A1:BN16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C29" sqref="B1:C29"/>
+    <sheetView tabSelected="1" topLeftCell="AW1" workbookViewId="0">
+      <selection activeCell="BH10" sqref="BH10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="3" max="3" width="13.625" customWidth="1"/>
+    <col min="8" max="8" width="22.75" customWidth="1"/>
+    <col min="18" max="18" width="11.125" customWidth="1"/>
+    <col min="20" max="20" width="10" customWidth="1"/>
+    <col min="65" max="65" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3">
-      <c r="B1" s="1" t="s">
+    <row r="1" ht="22.5" spans="1:66">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+      <c r="W1" s="1"/>
+      <c r="X1" s="1"/>
+      <c r="Y1" s="1"/>
+      <c r="Z1" s="1"/>
+      <c r="AA1" s="1"/>
+      <c r="AB1" s="1"/>
+      <c r="AC1" s="1"/>
+      <c r="AD1" s="1"/>
+      <c r="AE1" s="1"/>
+      <c r="AF1" s="1"/>
+      <c r="AG1" s="1"/>
+      <c r="AH1" s="1"/>
+      <c r="AI1" s="1"/>
+      <c r="AJ1" s="1"/>
+      <c r="AK1" s="1"/>
+      <c r="AL1" s="1"/>
+      <c r="AM1" s="1"/>
+      <c r="AN1" s="1"/>
+      <c r="AO1" s="1"/>
+      <c r="AP1" s="1"/>
+      <c r="AQ1" s="1"/>
+      <c r="AR1" s="1"/>
+      <c r="AS1" s="1"/>
+      <c r="AT1" s="1"/>
+      <c r="AU1" s="1"/>
+      <c r="AV1" s="1"/>
+      <c r="AW1" s="1"/>
+      <c r="AX1" s="1"/>
+      <c r="AY1" s="1"/>
+      <c r="AZ1" s="1"/>
+      <c r="BA1" s="1"/>
+      <c r="BB1" s="1"/>
+      <c r="BC1" s="1"/>
+      <c r="BD1" s="1"/>
+      <c r="BE1" s="1"/>
+      <c r="BF1" s="1"/>
+      <c r="BG1" s="1"/>
+      <c r="BH1" s="1"/>
+      <c r="BI1" s="1"/>
+      <c r="BJ1" s="1"/>
+      <c r="BK1" s="1"/>
+      <c r="BL1" s="1"/>
+      <c r="BM1" s="1"/>
+      <c r="BN1" s="1"/>
+    </row>
+    <row r="2" ht="18.75" customHeight="1" spans="1:66">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="5"/>
+      <c r="R2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="S2" s="5"/>
+      <c r="T2" s="5"/>
+      <c r="U2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="V2" s="5"/>
+      <c r="W2" s="5"/>
+      <c r="X2" s="5"/>
+      <c r="Y2" s="5"/>
+      <c r="Z2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA2" s="5"/>
+      <c r="AB2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="AC2" s="5"/>
+      <c r="AD2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="AE2" s="5"/>
+      <c r="AF2" s="5"/>
+      <c r="AG2" s="5"/>
+      <c r="AH2" s="5"/>
+      <c r="AI2" s="5"/>
+      <c r="AJ2" s="5"/>
+      <c r="AK2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="AL2" s="5"/>
+      <c r="AM2" s="5"/>
+      <c r="AN2" s="5"/>
+      <c r="AO2" s="5"/>
+      <c r="AP2" s="5"/>
+      <c r="AQ2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="AR2" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="AS2" s="5"/>
+      <c r="AT2" s="5"/>
+      <c r="AU2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="AV2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="AW2" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="AX2" s="5"/>
+      <c r="AY2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="AZ2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="BA2" s="5"/>
+      <c r="BB2" s="5"/>
+      <c r="BC2" s="5"/>
+      <c r="BD2" s="5"/>
+      <c r="BE2" s="5"/>
+      <c r="BF2" s="5"/>
+      <c r="BG2" s="5"/>
+      <c r="BH2" s="5"/>
+      <c r="BI2" s="5"/>
+      <c r="BJ2" s="5"/>
+      <c r="BK2" s="5"/>
+      <c r="BL2" s="5"/>
+      <c r="BM2" s="5"/>
+      <c r="BN2" s="5"/>
+    </row>
+    <row r="3" ht="57" spans="1:66">
+      <c r="A3" s="2"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="L3" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="M3" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="N3" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q3" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="R3" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="S3" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="T3" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="U3" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="V3" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="W3" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="X3" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y3" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z3" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA3" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB3" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC3" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD3" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="AE3" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="AF3" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG3" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH3" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="AI3" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="AJ3" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="AK3" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="AL3" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="AM3" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="AN3" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AO3" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="AP3" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="AQ3" s="3"/>
+      <c r="AR3" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="AS3" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="AT3" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AU3" s="3"/>
+      <c r="AV3" s="3"/>
+      <c r="AW3" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AX3" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AY3" s="3"/>
+      <c r="AZ3" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="BA3" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="BB3" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="BC3" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="BD3" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="BE3" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="BF3" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="BG3" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="BH3" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="BI3" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="BJ3" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="BK3" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="BL3" s="20" t="s">
         <v>67</v>
       </c>
+      <c r="BM3" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="BN3" s="20" t="s">
+        <v>69</v>
+      </c>
     </row>
-    <row r="2" spans="2:6">
-      <c r="B2" s="2" t="s">
+    <row r="4" spans="1:65">
+      <c r="A4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="H4" t="s">
+        <v>76</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="7"/>
+      <c r="Q4" s="7"/>
+      <c r="R4" s="7"/>
+      <c r="S4" s="7"/>
+      <c r="T4" s="7"/>
+      <c r="U4" s="7"/>
+      <c r="V4" s="7"/>
+      <c r="W4" s="7"/>
+      <c r="X4" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="Y4" s="9"/>
+      <c r="Z4" s="9"/>
+      <c r="AA4" s="9"/>
+      <c r="AB4" s="9"/>
+      <c r="AC4" s="9"/>
+      <c r="AD4" s="9"/>
+      <c r="AE4" s="9"/>
+      <c r="AF4" s="9"/>
+      <c r="AG4" s="9"/>
+      <c r="AH4" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="AI4" s="7"/>
+      <c r="AJ4" s="7"/>
+      <c r="AK4" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="AL4" s="9"/>
+      <c r="AM4" s="9"/>
+      <c r="AN4" s="9"/>
+      <c r="AO4" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="AP4" s="12"/>
+      <c r="AR4" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="AS4" s="12"/>
+      <c r="AT4" s="12"/>
+      <c r="AV4" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="AW4" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AX4" s="17"/>
+      <c r="AY4" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="AZ4" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="BA4" s="18">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="F2" s="3"/>
+      <c r="BB4" s="18">
+        <v>1</v>
+      </c>
+      <c r="BJ4" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="BK4" s="4"/>
+      <c r="BL4" s="4"/>
+      <c r="BM4" s="4"/>
     </row>
-    <row r="3" spans="2:3">
-      <c r="B3" s="4"/>
-      <c r="C3" s="1" t="s">
-        <v>69</v>
-      </c>
+    <row r="5" spans="1:65">
+      <c r="A5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C5" t="s">
+        <v>90</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="H5" t="s">
+        <v>94</v>
+      </c>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="8"/>
+      <c r="O5" s="8"/>
+      <c r="P5" s="8"/>
+      <c r="Q5" s="8"/>
+      <c r="R5" s="8"/>
+      <c r="S5" s="8"/>
+      <c r="T5" s="8"/>
+      <c r="U5" s="8"/>
+      <c r="V5" s="8"/>
+      <c r="W5" s="8"/>
+      <c r="X5" s="10"/>
+      <c r="Y5" s="10"/>
+      <c r="Z5" s="10"/>
+      <c r="AA5" s="10"/>
+      <c r="AB5" s="10"/>
+      <c r="AC5" s="10"/>
+      <c r="AD5" s="10"/>
+      <c r="AE5" s="10"/>
+      <c r="AF5" s="10"/>
+      <c r="AG5" s="10"/>
+      <c r="AH5" s="8"/>
+      <c r="AI5" s="8"/>
+      <c r="AJ5" s="8"/>
+      <c r="AK5" s="10"/>
+      <c r="AL5" s="10"/>
+      <c r="AM5" s="10"/>
+      <c r="AN5" s="10"/>
+      <c r="AO5" s="13"/>
+      <c r="AP5" s="13"/>
+      <c r="AR5" s="13"/>
+      <c r="AS5" s="13"/>
+      <c r="AT5" s="13"/>
+      <c r="AV5" s="13"/>
+      <c r="AW5" s="19"/>
+      <c r="AX5" s="19"/>
+      <c r="AY5" s="13"/>
+      <c r="AZ5" s="13"/>
+      <c r="BA5" s="18">
+        <v>2</v>
+      </c>
+      <c r="BB5" s="18">
+        <v>2</v>
+      </c>
+      <c r="BJ5" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="BK5" s="4"/>
+      <c r="BL5" s="4"/>
+      <c r="BM5" s="4"/>
     </row>
-    <row r="4" spans="2:3">
-      <c r="B4" s="4"/>
-      <c r="C4" s="1" t="s">
-        <v>70</v>
+    <row r="6" spans="1:54">
+      <c r="A6" t="s">
+        <v>96</v>
+      </c>
+      <c r="B6" t="s">
+        <v>97</v>
+      </c>
+      <c r="C6" t="s">
+        <v>98</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="H6" t="s">
+        <v>102</v>
+      </c>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="8"/>
+      <c r="O6" s="8"/>
+      <c r="P6" s="8"/>
+      <c r="Q6" s="8"/>
+      <c r="R6" s="8"/>
+      <c r="S6" s="8"/>
+      <c r="T6" s="8"/>
+      <c r="U6" s="8"/>
+      <c r="V6" s="8"/>
+      <c r="W6" s="8"/>
+      <c r="X6" s="10"/>
+      <c r="Y6" s="10"/>
+      <c r="Z6" s="10"/>
+      <c r="AA6" s="10"/>
+      <c r="AB6" s="10"/>
+      <c r="AC6" s="10"/>
+      <c r="AD6" s="10"/>
+      <c r="AE6" s="10"/>
+      <c r="AF6" s="10"/>
+      <c r="AG6" s="10"/>
+      <c r="AH6" s="8"/>
+      <c r="AI6" s="8"/>
+      <c r="AJ6" s="8"/>
+      <c r="AK6" s="10"/>
+      <c r="AL6" s="10"/>
+      <c r="AM6" s="10"/>
+      <c r="AN6" s="10"/>
+      <c r="AO6" s="13"/>
+      <c r="AP6" s="13"/>
+      <c r="AR6" s="13"/>
+      <c r="AS6" s="13"/>
+      <c r="AT6" s="13"/>
+      <c r="AV6" s="13"/>
+      <c r="AW6" s="19"/>
+      <c r="AX6" s="19"/>
+      <c r="AY6" s="13"/>
+      <c r="AZ6" s="13"/>
+      <c r="BA6" s="18">
+        <v>3</v>
+      </c>
+      <c r="BB6" s="18">
+        <v>3</v>
       </c>
     </row>
-    <row r="5" spans="2:3">
-      <c r="B5" s="4"/>
-      <c r="C5" s="1" t="s">
-        <v>71</v>
+    <row r="7" spans="1:54">
+      <c r="A7" t="s">
+        <v>103</v>
+      </c>
+      <c r="B7" t="s">
+        <v>104</v>
+      </c>
+      <c r="C7" t="s">
+        <v>105</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="H7" t="s">
+        <v>108</v>
+      </c>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="8"/>
+      <c r="P7" s="8"/>
+      <c r="Q7" s="8"/>
+      <c r="R7" s="8"/>
+      <c r="S7" s="8"/>
+      <c r="T7" s="8"/>
+      <c r="U7" s="8"/>
+      <c r="V7" s="8"/>
+      <c r="W7" s="8"/>
+      <c r="X7" s="10"/>
+      <c r="Y7" s="10"/>
+      <c r="Z7" s="10"/>
+      <c r="AA7" s="10"/>
+      <c r="AB7" s="10"/>
+      <c r="AC7" s="10"/>
+      <c r="AD7" s="10"/>
+      <c r="AE7" s="10"/>
+      <c r="AF7" s="10"/>
+      <c r="AG7" s="10"/>
+      <c r="AH7" s="8"/>
+      <c r="AI7" s="8"/>
+      <c r="AJ7" s="8"/>
+      <c r="AK7" s="10"/>
+      <c r="AL7" s="10"/>
+      <c r="AM7" s="10"/>
+      <c r="AN7" s="10"/>
+      <c r="AO7" s="13"/>
+      <c r="AP7" s="13"/>
+      <c r="AR7" s="13"/>
+      <c r="AS7" s="13"/>
+      <c r="AT7" s="13"/>
+      <c r="AV7" s="13"/>
+      <c r="AW7" s="19"/>
+      <c r="AX7" s="19"/>
+      <c r="AY7" s="13"/>
+      <c r="AZ7" s="13"/>
+      <c r="BA7" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="BB7" s="18" t="s">
+        <v>92</v>
       </c>
     </row>
-    <row r="6" spans="2:3">
-      <c r="B6" s="5"/>
-      <c r="C6" s="1" t="s">
-        <v>72</v>
-      </c>
+    <row r="8" spans="1:52">
+      <c r="A8" t="s">
+        <v>109</v>
+      </c>
+      <c r="B8" t="s">
+        <v>110</v>
+      </c>
+      <c r="C8" t="s">
+        <v>111</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="8"/>
+      <c r="P8" s="8"/>
+      <c r="Q8" s="8"/>
+      <c r="R8" s="8"/>
+      <c r="S8" s="8"/>
+      <c r="T8" s="8"/>
+      <c r="U8" s="8"/>
+      <c r="V8" s="8"/>
+      <c r="W8" s="8"/>
+      <c r="X8" s="10"/>
+      <c r="Y8" s="10"/>
+      <c r="Z8" s="10"/>
+      <c r="AA8" s="10"/>
+      <c r="AB8" s="10"/>
+      <c r="AC8" s="10"/>
+      <c r="AD8" s="10"/>
+      <c r="AE8" s="10"/>
+      <c r="AF8" s="10"/>
+      <c r="AG8" s="10"/>
+      <c r="AH8" s="8"/>
+      <c r="AI8" s="8"/>
+      <c r="AJ8" s="8"/>
+      <c r="AK8" s="10"/>
+      <c r="AL8" s="10"/>
+      <c r="AM8" s="10"/>
+      <c r="AN8" s="10"/>
+      <c r="AO8" s="13"/>
+      <c r="AP8" s="13"/>
+      <c r="AR8" s="13"/>
+      <c r="AS8" s="13"/>
+      <c r="AT8" s="13"/>
+      <c r="AV8" s="13"/>
+      <c r="AW8" s="19"/>
+      <c r="AX8" s="19"/>
+      <c r="AY8" s="13"/>
+      <c r="AZ8" s="13"/>
     </row>
-    <row r="7" spans="2:3">
-      <c r="B7" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>73</v>
-      </c>
+    <row r="9" spans="1:52">
+      <c r="A9" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B9" t="s">
+        <v>115</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="8"/>
+      <c r="N9" s="8"/>
+      <c r="O9" s="8"/>
+      <c r="P9" s="8"/>
+      <c r="Q9" s="8"/>
+      <c r="R9" s="8"/>
+      <c r="S9" s="8"/>
+      <c r="T9" s="8"/>
+      <c r="U9" s="8"/>
+      <c r="V9" s="8"/>
+      <c r="W9" s="8"/>
+      <c r="X9" s="10"/>
+      <c r="Y9" s="10"/>
+      <c r="Z9" s="10"/>
+      <c r="AA9" s="10"/>
+      <c r="AB9" s="10"/>
+      <c r="AC9" s="10"/>
+      <c r="AD9" s="10"/>
+      <c r="AE9" s="10"/>
+      <c r="AF9" s="10"/>
+      <c r="AG9" s="10"/>
+      <c r="AH9" s="8"/>
+      <c r="AI9" s="8"/>
+      <c r="AJ9" s="8"/>
+      <c r="AK9" s="10"/>
+      <c r="AL9" s="10"/>
+      <c r="AM9" s="10"/>
+      <c r="AN9" s="10"/>
+      <c r="AO9" s="13"/>
+      <c r="AP9" s="13"/>
+      <c r="AR9" s="13"/>
+      <c r="AS9" s="13"/>
+      <c r="AT9" s="13"/>
+      <c r="AV9" s="13"/>
+      <c r="AW9" s="19"/>
+      <c r="AX9" s="19"/>
+      <c r="AY9" s="13"/>
+      <c r="AZ9" s="13"/>
     </row>
-    <row r="8" spans="2:3">
-      <c r="B8" s="4"/>
-      <c r="C8" s="1" t="s">
-        <v>74</v>
-      </c>
+    <row r="10" spans="2:52">
+      <c r="B10" t="s">
+        <v>120</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="H10" t="s">
+        <v>123</v>
+      </c>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="8"/>
+      <c r="N10" s="8"/>
+      <c r="O10" s="8"/>
+      <c r="P10" s="8"/>
+      <c r="Q10" s="8"/>
+      <c r="R10" s="8"/>
+      <c r="S10" s="8"/>
+      <c r="T10" s="8"/>
+      <c r="U10" s="8"/>
+      <c r="V10" s="8"/>
+      <c r="W10" s="8"/>
+      <c r="X10" s="10"/>
+      <c r="Y10" s="10"/>
+      <c r="Z10" s="10"/>
+      <c r="AA10" s="10"/>
+      <c r="AB10" s="10"/>
+      <c r="AC10" s="10"/>
+      <c r="AD10" s="10"/>
+      <c r="AE10" s="10"/>
+      <c r="AF10" s="10"/>
+      <c r="AG10" s="10"/>
+      <c r="AH10" s="8"/>
+      <c r="AI10" s="8"/>
+      <c r="AJ10" s="8"/>
+      <c r="AK10" s="10"/>
+      <c r="AL10" s="10"/>
+      <c r="AM10" s="10"/>
+      <c r="AN10" s="10"/>
+      <c r="AO10" s="13"/>
+      <c r="AP10" s="13"/>
+      <c r="AR10" s="13"/>
+      <c r="AS10" s="13"/>
+      <c r="AT10" s="13"/>
+      <c r="AV10" s="13"/>
+      <c r="AW10" s="19"/>
+      <c r="AX10" s="19"/>
+      <c r="AY10" s="13"/>
+      <c r="AZ10" s="13"/>
     </row>
-    <row r="9" spans="2:3">
-      <c r="B9" s="4"/>
-      <c r="C9" s="1" t="s">
-        <v>75</v>
-      </c>
+    <row r="11" spans="2:52">
+      <c r="B11" t="s">
+        <v>124</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="H11" t="s">
+        <v>127</v>
+      </c>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="8"/>
+      <c r="N11" s="8"/>
+      <c r="O11" s="8"/>
+      <c r="P11" s="8"/>
+      <c r="Q11" s="8"/>
+      <c r="R11" s="8"/>
+      <c r="S11" s="8"/>
+      <c r="T11" s="8"/>
+      <c r="U11" s="8"/>
+      <c r="V11" s="8"/>
+      <c r="W11" s="8"/>
+      <c r="X11" s="10"/>
+      <c r="Y11" s="10"/>
+      <c r="Z11" s="10"/>
+      <c r="AA11" s="10"/>
+      <c r="AB11" s="10"/>
+      <c r="AC11" s="10"/>
+      <c r="AD11" s="10"/>
+      <c r="AE11" s="10"/>
+      <c r="AF11" s="10"/>
+      <c r="AG11" s="10"/>
+      <c r="AH11" s="8"/>
+      <c r="AI11" s="8"/>
+      <c r="AJ11" s="8"/>
+      <c r="AK11" s="10"/>
+      <c r="AL11" s="10"/>
+      <c r="AM11" s="10"/>
+      <c r="AN11" s="10"/>
+      <c r="AO11" s="13"/>
+      <c r="AP11" s="13"/>
+      <c r="AR11" s="13"/>
+      <c r="AS11" s="13"/>
+      <c r="AT11" s="13"/>
+      <c r="AV11" s="13"/>
+      <c r="AW11" s="19"/>
+      <c r="AX11" s="19"/>
+      <c r="AY11" s="13"/>
+      <c r="AZ11" s="13"/>
     </row>
-    <row r="10" spans="2:3">
-      <c r="B10" s="4"/>
-      <c r="C10" s="1" t="s">
-        <v>76</v>
+    <row r="12" spans="2:8">
+      <c r="B12" t="s">
+        <v>128</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="H12" t="s">
+        <v>129</v>
       </c>
     </row>
-    <row r="11" spans="2:3">
-      <c r="B11" s="5"/>
-      <c r="C11" s="1" t="s">
-        <v>72</v>
+    <row r="13" spans="2:8">
+      <c r="B13" t="s">
+        <v>130</v>
+      </c>
+      <c r="H13" t="s">
+        <v>131</v>
       </c>
     </row>
-    <row r="12" spans="2:3">
-      <c r="B12" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C12" s="6">
-        <v>4</v>
+    <row r="14" spans="2:8">
+      <c r="B14" t="s">
+        <v>132</v>
+      </c>
+      <c r="H14" t="s">
+        <v>133</v>
       </c>
     </row>
-    <row r="13" spans="2:3">
-      <c r="B13" s="4"/>
-      <c r="C13" s="6">
-        <v>5</v>
+    <row r="15" spans="2:8">
+      <c r="B15" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="H15" t="s">
+        <v>134</v>
       </c>
     </row>
-    <row r="14" spans="2:3">
-      <c r="B14" s="4"/>
-      <c r="C14" s="6">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="2:3">
-      <c r="B15" s="5"/>
-      <c r="C15" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="16" spans="2:3">
-      <c r="B16" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3">
-      <c r="B17" s="4"/>
-      <c r="C17" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3">
-      <c r="B18" s="5"/>
-      <c r="C18" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="19" spans="2:3">
-      <c r="B19" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="20" spans="2:3">
-      <c r="B20" s="5"/>
-      <c r="C20" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="21" spans="2:3">
-      <c r="B21" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="22" spans="2:3">
-      <c r="B22" s="5"/>
-      <c r="C22" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3">
-      <c r="B23" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="24" spans="2:3">
-      <c r="B24" s="4"/>
-      <c r="C24" s="7" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="25" spans="2:3">
-      <c r="B25" s="4"/>
-      <c r="C25" s="7" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="26" spans="2:3">
-      <c r="B26" s="5"/>
-      <c r="C26" s="7" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="27" spans="2:3">
-      <c r="B27" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="28" spans="2:3">
-      <c r="B28" s="4"/>
-      <c r="C28" s="7" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="29" spans="2:3">
-      <c r="B29" s="5"/>
-      <c r="C29" s="7" t="s">
-        <v>72</v>
+    <row r="16" spans="8:8">
+      <c r="H16" s="4" t="s">
+        <v>92</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="B2:B6"/>
-    <mergeCell ref="B7:B11"/>
-    <mergeCell ref="B12:B15"/>
-    <mergeCell ref="B16:B18"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="B23:B26"/>
-    <mergeCell ref="B27:B29"/>
+  <mergeCells count="34">
+    <mergeCell ref="A1:BN1"/>
+    <mergeCell ref="I2:N2"/>
+    <mergeCell ref="O2:Q2"/>
+    <mergeCell ref="R2:T2"/>
+    <mergeCell ref="U2:Y2"/>
+    <mergeCell ref="Z2:AA2"/>
+    <mergeCell ref="AB2:AC2"/>
+    <mergeCell ref="AD2:AJ2"/>
+    <mergeCell ref="AK2:AP2"/>
+    <mergeCell ref="AR2:AT2"/>
+    <mergeCell ref="AW2:AX2"/>
+    <mergeCell ref="AZ2:BN2"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="AQ2:AQ3"/>
+    <mergeCell ref="AU2:AU3"/>
+    <mergeCell ref="AV2:AV3"/>
+    <mergeCell ref="AV4:AV11"/>
+    <mergeCell ref="AY2:AY3"/>
+    <mergeCell ref="AY4:AY11"/>
+    <mergeCell ref="AZ4:AZ11"/>
+    <mergeCell ref="I4:W11"/>
+    <mergeCell ref="AH4:AJ11"/>
+    <mergeCell ref="X4:AG11"/>
+    <mergeCell ref="AO4:AP11"/>
+    <mergeCell ref="AW4:AX11"/>
+    <mergeCell ref="AK4:AN11"/>
+    <mergeCell ref="AR4:AT11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
 </file>